--- a/data_handler/config_calc_details(India)/3-statistic_config-detail phen weeks.xlsx
+++ b/data_handler/config_calc_details(India)/3-statistic_config-detail phen weeks.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20370"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5E54D1-E736-459C-B873-6E975210DD99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22B165F-B67E-44F9-8E83-98D2070C3656}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="759" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="C2" s="35">
         <f ca="1">TODAY()</f>
-        <v>44189</v>
+        <v>44221</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>57</v>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="B7" s="37" t="str">
         <f ca="1">TEXT('2.time process'!$C$2-1- 4*7,"YYYY/mm/dd")</f>
-        <v>2020/11/25</v>
+        <v>2020/12/27</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>16</v>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="B8" s="37" t="str">
         <f ca="1">TEXT('2.time process'!$C$2 -1 -3*7,"YYYY/mm/dd")</f>
-        <v>2020/12/02</v>
+        <v>2021/01/03</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>16</v>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="B9" s="37" t="str">
         <f ca="1">TEXT('2.time process'!$C$2 - 1 -2*7,"YYYY/mm/dd")</f>
-        <v>2020/12/09</v>
+        <v>2021/01/10</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>16</v>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="B10" s="37" t="str">
         <f ca="1">TEXT('2.time process'!$C$2 -1 -1*7,"YYYY/mm/dd")</f>
-        <v>2020/12/16</v>
+        <v>2021/01/17</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>16</v>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="B11" s="37" t="str">
         <f ca="1">TEXT('2.time process'!$C$2 - 1 -1*0,"YYYY/mm/dd")</f>
-        <v>2020/12/23</v>
+        <v>2021/01/24</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>16</v>
@@ -3460,7 +3460,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="str">
         <f ca="1">"发帖时间 &gt;= " &amp; "'" &amp; TEXT(TODAY()-20,"yyyy-mm-dd") &amp; "'"</f>
-        <v>发帖时间 &gt;= '2020-12-04'</v>
+        <v>发帖时间 &gt;= '2021-01-05'</v>
       </c>
       <c r="J2" s="5"/>
     </row>
